--- a/data/support_dev.xlsx
+++ b/data/support_dev.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>amla02-20</t>
+          <t>amla07-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
